--- a/resultados/Metric_x_Dataset.xlsx
+++ b/resultados/Metric_x_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mella\OneDrive\Escritorio\Difuse-Cluster-Chain-for-Multi-Label-Classification\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69BB7DA-BECC-4469-BCF6-D6AF5DB14943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39433948-F6B2-4752-B5FE-A3827FF25755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{06D94AA4-ACD4-4E8E-9ED1-26F6139EC99A}"/>
   </bookViews>
@@ -154,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83630361-A49D-4924-A152-30FC9FAA36E0}">
   <dimension ref="A2:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,7 +558,9 @@
       <c r="E5" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0.65200000000000002</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
@@ -570,7 +573,9 @@
       <c r="L5" s="4">
         <v>0.64100000000000001</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>0.63100000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
@@ -585,7 +590,9 @@
       <c r="E6" s="4">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>0.47899999999999998</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,7 +605,9 @@
       <c r="L6" s="4">
         <v>0.64300000000000002</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>0.63700000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
@@ -629,7 +638,9 @@
       <c r="E8" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.156</v>
+      </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
@@ -639,10 +650,12 @@
       <c r="K8" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>0.497</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="4">
+        <v>0.53300000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
@@ -657,11 +670,13 @@
       <c r="E9" s="1">
         <v>0.40699999999999997</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>0.48799999999999999</v>
+      </c>
       <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>0.51700000000000002</v>
       </c>
       <c r="K9" s="1">
@@ -670,7 +685,9 @@
       <c r="L9" s="1">
         <v>0.436</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="4">
+        <v>0.54200000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
@@ -685,7 +702,9 @@
       <c r="E10" s="1">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>0.191</v>
+      </c>
       <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
@@ -698,7 +717,9 @@
       <c r="L10" s="4">
         <v>0.214</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>0.14299999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
@@ -779,7 +800,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1966</v>
       </c>
       <c r="J15">
         <f>SUM(J5:J14)/10</f>
@@ -795,7 +816,7 @@
       </c>
       <c r="M15">
         <f t="shared" ref="M15" si="3">SUM(M5:M14)/10</f>
-        <v>0</v>
+        <v>0.24859999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
@@ -844,10 +865,12 @@
       <c r="D20" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>0.67</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4">
+        <v>0.68500000000000005</v>
+      </c>
       <c r="I20" s="3" t="s">
         <v>2</v>
       </c>
@@ -857,10 +880,12 @@
       <c r="K20" s="1">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <v>0.29399999999999998</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="4">
+        <v>0.33200000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
@@ -875,7 +900,9 @@
       <c r="E21" s="4">
         <v>0.66600000000000004</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.66400000000000003</v>
+      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,7 +915,9 @@
       <c r="L21" s="4">
         <v>0.184</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>0.16300000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
@@ -923,23 +952,27 @@
       <c r="D23" s="1">
         <v>0.46700000000000003</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>0.47199999999999998</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="4">
+        <v>0.501</v>
+      </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="1">
         <v>0.106</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>0.23200000000000001</v>
       </c>
       <c r="L23" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="4">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -952,7 +985,7 @@
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>0.56000000000000005</v>
       </c>
       <c r="D24" s="1">
@@ -961,11 +994,13 @@
       <c r="E24" s="1">
         <v>0.48899999999999999</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="4">
+        <v>0.57399999999999995</v>
+      </c>
       <c r="I24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>0.02</v>
       </c>
       <c r="K24" s="1">
@@ -974,7 +1009,9 @@
       <c r="L24" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="4">
+        <v>0.25600000000000001</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -996,7 +1033,9 @@
       <c r="E25" s="1">
         <v>0.434</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>0.38</v>
+      </c>
       <c r="I25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1048,9 @@
       <c r="L25" s="1">
         <v>0.47099999999999997</v>
       </c>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>0.52</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1125,7 +1166,7 @@
       </c>
       <c r="F30">
         <f t="shared" ref="F30" si="6">SUM(F20:F29)/10</f>
-        <v>0</v>
+        <v>0.28039999999999998</v>
       </c>
       <c r="J30">
         <f>SUM(J20:J29)/10</f>
@@ -1141,7 +1182,7 @@
       </c>
       <c r="M30">
         <f t="shared" ref="M30" si="9">SUM(M20:M29)/10</f>
-        <v>0</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1213,10 +1254,12 @@
       <c r="D35" s="1">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="4">
+        <v>0.182</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -1235,10 +1278,12 @@
       <c r="D36" s="1">
         <v>0.30199999999999999</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>0.3</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="4">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -1273,10 +1318,12 @@
       <c r="D38" s="1">
         <v>0.159</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>0.158</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="4">
+        <v>0.14799999999999999</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -1289,7 +1336,7 @@
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>0.27900000000000003</v>
       </c>
       <c r="D39" s="1">
@@ -1298,7 +1345,9 @@
       <c r="E39" s="1">
         <v>0.30099999999999999</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="4">
+        <v>0.26800000000000002</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -1320,7 +1369,9 @@
       <c r="E40" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -1387,7 +1438,7 @@
       </c>
       <c r="F45">
         <f t="shared" ref="F45" si="12">SUM(F35:F44)/10</f>
-        <v>0</v>
+        <v>9.3200000000000005E-2</v>
       </c>
     </row>
   </sheetData>
